--- a/medicine/Enfance/Ane_Riel/Ane_Riel.xlsx
+++ b/medicine/Enfance/Ane_Riel/Ane_Riel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ane Riel, née le 25 septembre 1971 à Aarhus, au Danemark, est une femme de lettres danoise, auteure de roman à suspense et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille d'un père avocat et d'une mère qui écrit et illustre des livres pour enfants, elle amorce en 1991 des études supérieures en histoire de l'art à l'université d'Aarhus, mais abandonne avant l'obtention d'un diplôme. 
 En 1996, elle déménage à Copenhague avec l'ambition d'étudier l'illustration, mais elle ne donne pas suite à ce projet. Entre-temps, en 1995, elle publie Ind i maleriet (1995), un manuel scolaire sur l'art, suivi d'autres ouvrages similaires sur l'architecture, puis de textes de littérature d'enfance et de jeunesse, dont certains sont illustrés par sa mère.
@@ -546,55 +560,133 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Slagteren i Liseleje (2013)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Slagteren i Liseleje (2013)
 Harpiks (2015). Publié en français sous le titre Résine, traduit par Terje Sinding, Paris, Éditions du Seuil (2021)
 Bæst (2019)
-Urværk (2021). Publié en français sous le titre Les fantômes ne pleurent pas, traduit par Terje Sinding, Editions du Seuil (2023)
-Littérature d'enfance et de jeunesse
-Da mor og far blev skilt (2000)
+Urværk (2021). Publié en français sous le titre Les fantômes ne pleurent pas, traduit par Terje Sinding, Editions du Seuil (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ane_Riel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ane_Riel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Da mor og far blev skilt (2000)
 Ferie med gys (2000)
 Sylfeden - et balleteventyr (2001)
 Da Mikkel fik en ny familie (2002)
 Vild med Julie (2003)
-Sig ja, Julie! (2005)
-Manuels scolaires
-Ind i maleriet (1995)
+Sig ja, Julie! (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ane_Riel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ane_Riel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Manuels scolaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ind i maleriet (1995)
 Arkitektur - værd at kigge efter! (1996)
 Arkitektur - værd at kigge efter! : Opgavehæfte  (1996)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ane_Riel</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ane_Riel</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Det Danske Kriminalakademis debutantpris (no) 2013 pour Slagteren i Liseleje[1]
-Prix Harald-Mogensen 2016 pour Harpiks[2]
-Prix Clé de verre 2016 pour Harpiks[3]</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Det Danske Kriminalakademis debutantpris (no) 2013 pour Slagteren i Liseleje
+Prix Harald-Mogensen 2016 pour Harpiks
+Prix Clé de verre 2016 pour Harpiks</t>
         </is>
       </c>
     </row>
